--- a/public/template_relawan.xlsx
+++ b/public/template_relawan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\swarapita\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS-015\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9FA19B-3BE7-4460-98F5-57E0C9B0FCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E43471-CF7B-4B24-A546-14F055EA3475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="336">
   <si>
     <t>KOTA BEKASI</t>
   </si>
@@ -1058,15 +1058,6 @@
   </si>
   <si>
     <t>Jawa Barat</t>
-  </si>
-  <si>
-    <t>DEPOK</t>
-  </si>
-  <si>
-    <t>Bekasi</t>
-  </si>
-  <si>
-    <t>Aren Jaya</t>
   </si>
 </sst>
 </file>
@@ -1965,24 +1956,24 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -2023,7 +2014,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2841902966579590</v>
       </c>
@@ -2064,7 +2055,7 @@
         <v>8506563511073</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>9766118009801980</v>
       </c>
@@ -2105,7 +2096,7 @@
         <v>64067093368307</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>6611860159455090</v>
       </c>
@@ -2146,128 +2137,19 @@
         <v>91764272735574</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3520117764533040</v>
-      </c>
-      <c r="B5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E5" s="2">
-        <v>36104</v>
-      </c>
-      <c r="F5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>335</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1">
-        <v>8246556510673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>9237086449213940</v>
-      </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>334</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>335</v>
-      </c>
-      <c r="J6" t="s">
-        <v>336</v>
-      </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="1">
-        <v>91643196664822</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4365480120561440</v>
-      </c>
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E7" s="2">
-        <v>29465</v>
-      </c>
-      <c r="F7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>335</v>
-      </c>
-      <c r="J7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>338</v>
-      </c>
-      <c r="M7" s="1">
-        <v>14927545559061</v>
-      </c>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="M7" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2302,18 +2184,18 @@
       <selection activeCell="J1" sqref="J1:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>2841902966579590</v>
       </c>
@@ -2348,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>9766118009801980</v>
       </c>
@@ -2383,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>6611860159455090</v>
       </c>
@@ -2418,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3520117764533040</v>
       </c>
@@ -2453,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9237086449213940</v>
       </c>
@@ -2488,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4365480120561440</v>
       </c>
@@ -2523,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>9917965463235970</v>
       </c>
@@ -2558,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3746052726640820</v>
       </c>
@@ -2593,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3900459352593250</v>
       </c>
@@ -2628,7 +2510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9206970909577280</v>
       </c>
@@ -2663,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7072152971580810</v>
       </c>
@@ -2698,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2126782830760010</v>
       </c>
@@ -2733,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3479225924718370</v>
       </c>
@@ -2768,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>5489229780474910</v>
       </c>
@@ -2803,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3305460063755300</v>
       </c>
@@ -2838,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3748136939585500</v>
       </c>
@@ -2873,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6755231503091810</v>
       </c>
@@ -2908,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7128539611728480</v>
       </c>
@@ -2943,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>9989571983065370</v>
       </c>
@@ -2978,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3115475706000120</v>
       </c>
@@ -3013,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>9013715169625520</v>
       </c>
@@ -3048,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>4315591718673410</v>
       </c>
@@ -3083,7 +2965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1903574441488730</v>
       </c>
@@ -3118,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3455764361960120</v>
       </c>
@@ -3153,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8655697472799790</v>
       </c>
@@ -3188,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>7646287323341500</v>
       </c>
@@ -3223,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>7746864291640740</v>
       </c>
@@ -3258,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>9018988759258450</v>
       </c>
@@ -3293,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>4982988174112420</v>
       </c>
@@ -3328,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>7401768853723180</v>
       </c>
@@ -3363,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9702390880470910</v>
       </c>
@@ -3398,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2287766108555950</v>
       </c>
@@ -3433,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>9556873269307120</v>
       </c>
@@ -3468,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>9981692743178550</v>
       </c>
@@ -3503,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>8536432655165440</v>
       </c>
@@ -3538,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>6920601090908750</v>
       </c>
@@ -3573,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4979318399772040</v>
       </c>
@@ -3608,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>3848171868839290</v>
       </c>
@@ -3643,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>8797892271664240</v>
       </c>
@@ -3678,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4564802418501740</v>
       </c>
@@ -3713,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>6674090340249030</v>
       </c>
@@ -3748,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1787018277828100</v>
       </c>
@@ -3783,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>4459940240509090</v>
       </c>
@@ -3818,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>8944774408996520</v>
       </c>
@@ -3853,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>5270618681456810</v>
       </c>
@@ -3888,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>4691626474391910</v>
       </c>
@@ -3923,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>6390744754490290</v>
       </c>
@@ -3958,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>9510005123416260</v>
       </c>
@@ -3993,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>5593192882970150</v>
       </c>
@@ -4028,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>7759181964068990</v>
       </c>
@@ -4063,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>8183082157398620</v>
       </c>
@@ -4098,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>9028532597744730</v>
       </c>
@@ -4133,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>9591629349648820</v>
       </c>
@@ -4168,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2455883275703150</v>
       </c>
@@ -4203,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4696548516633220</v>
       </c>
@@ -4238,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2413680415591130</v>
       </c>
@@ -4273,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>7098529441854630</v>
       </c>
@@ -4308,7 +4190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7579674871760300</v>
       </c>
@@ -4343,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>9146525199821350</v>
       </c>
@@ -4378,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>5374134215522450</v>
       </c>
@@ -4413,7 +4295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>1175433000115940</v>
       </c>
@@ -4448,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>6983846895012980</v>
       </c>
@@ -4483,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2942459928228890</v>
       </c>
@@ -4518,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>6112191254340010</v>
       </c>
@@ -4553,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>6660040996862660</v>
       </c>
@@ -4588,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1699427289002000</v>
       </c>
@@ -4623,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>6626514617058490</v>
       </c>
@@ -4658,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>7879997978585800</v>
       </c>
@@ -4693,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>1489675471678420</v>
       </c>
@@ -4728,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>3774590151048810</v>
       </c>
@@ -4763,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>6594465443453560</v>
       </c>
@@ -4798,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>3592000969421570</v>
       </c>
@@ -4833,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>7163407676705450</v>
       </c>
@@ -4868,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>3076797856066550</v>
       </c>
@@ -4903,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>3731925850186420</v>
       </c>
@@ -4938,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>1944401641723550</v>
       </c>
@@ -4973,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>6093062301367140</v>
       </c>
@@ -5008,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>6387999634202590</v>
       </c>
@@ -5043,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>6316734386198650</v>
       </c>
@@ -5078,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>1196457682377860</v>
       </c>
@@ -5113,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>3547784695388410</v>
       </c>
@@ -5148,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>7065603426330860</v>
       </c>
@@ -5183,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>2437024302786860</v>
       </c>
@@ -5218,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>7694813073008780</v>
       </c>
@@ -5253,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>9937782350729650</v>
       </c>
@@ -5288,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>5280849040787840</v>
       </c>
@@ -5323,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>3856800485423170</v>
       </c>
@@ -5358,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>5876269906312420</v>
       </c>
@@ -5393,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>8678962117665460</v>
       </c>
@@ -5428,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>7592736856033730</v>
       </c>
@@ -5463,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>9804524933565920</v>
       </c>
@@ -5498,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>7459462363380290</v>
       </c>
@@ -5533,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>4942811973400370</v>
       </c>
@@ -5568,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>5130665386961080</v>
       </c>
@@ -5603,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>7474406460931530</v>
       </c>
@@ -5638,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>5644183891011060</v>
       </c>
@@ -5673,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>8535579185781480</v>
       </c>
@@ -5708,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>1219711368842370</v>
       </c>
@@ -5743,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>6121605423068890</v>
       </c>
@@ -5778,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>1462608451379970</v>
       </c>
@@ -5813,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>4715716270309420</v>
       </c>
@@ -5848,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>3844305309421450</v>
       </c>
@@ -5883,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>7688380528635520</v>
       </c>
@@ -5918,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>3388846124758290</v>
       </c>
@@ -5953,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>6389138396154200</v>
       </c>
@@ -5988,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>7239729769963770</v>
       </c>
@@ -6023,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>6026869749746390</v>
       </c>
@@ -6058,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>5782851102830900</v>
       </c>
@@ -6093,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>5536005020823580</v>
       </c>
@@ -6128,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>1410122241965480</v>
       </c>
@@ -6163,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>6205528452207560</v>
       </c>
@@ -6198,7 +6080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>8858609160661930</v>
       </c>
@@ -6233,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>2997384715663520</v>
       </c>
@@ -6268,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>1374105153273930</v>
       </c>
@@ -6303,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>4651567227012960</v>
       </c>
@@ -6338,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>2506314598476150</v>
       </c>
@@ -6373,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>9654048884387680</v>
       </c>
@@ -6408,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>1340256790036580</v>
       </c>
@@ -6443,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>3374124309016970</v>
       </c>
@@ -6492,43 +6374,43 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>126</v>
       </c>
@@ -6539,7 +6421,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -6550,7 +6432,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>64</v>
       </c>
@@ -6561,7 +6443,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -6569,7 +6451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>19</v>
       </c>
@@ -6577,7 +6459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>25</v>
       </c>
@@ -6585,7 +6467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>30</v>
       </c>
@@ -6593,7 +6475,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>34</v>
       </c>
@@ -6601,7 +6483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>38</v>
       </c>
@@ -6609,7 +6491,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>44</v>
       </c>
@@ -6617,7 +6499,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>50</v>
       </c>
@@ -6625,7 +6507,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>55</v>
       </c>
@@ -6633,12 +6515,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -6709,7 +6591,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -6780,7 +6662,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -6851,7 +6733,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -6922,7 +6804,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -6993,7 +6875,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -7040,7 +6922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>18</v>
       </c>
@@ -7069,7 +6951,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="P23" t="s">
         <v>83</v>
       </c>
